--- a/patient_data/patient_7.xlsx
+++ b/patient_data/patient_7.xlsx
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -998,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1152,7 +1152,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1235,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -1558,13 +1558,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -1656,7 +1656,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -2005,19 +2005,19 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -2064,16 +2064,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2082,19 +2082,19 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -2215,7 +2215,7 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
